--- a/Country_Aggregated_Clusters_Birch.xlsx
+++ b/Country_Aggregated_Clusters_Birch.xlsx
@@ -484,7 +484,7 @@
         <v>3.454545454545455</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>2.916666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -616,7 +616,7 @@
         <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +726,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -770,7 +770,7 @@
         <v>1.379452054794521</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -792,7 +792,7 @@
         <v>1.055555555555556</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -814,7 +814,7 @@
         <v>1.75</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -836,7 +836,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +858,7 @@
         <v>2.5</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -880,7 +880,7 @@
         <v>-1.5</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -902,7 +902,7 @@
         <v>3.181818181818182</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +924,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -1012,7 +1012,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1056,7 +1056,7 @@
         <v>1.75</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1100,7 +1100,7 @@
         <v>1.375</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1122,7 +1122,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1166,7 +1166,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -1188,7 +1188,7 @@
         <v>0.5</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1210,7 +1210,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -1232,7 +1232,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -1254,7 +1254,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1276,7 +1276,7 @@
         <v>3.133333333333333</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1298,7 +1298,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1320,7 +1320,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1342,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1364,7 +1364,7 @@
         <v>-1</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1386,7 +1386,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -1408,7 +1408,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -1430,7 +1430,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -1452,7 +1452,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1474,7 +1474,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -1496,7 +1496,7 @@
         <v>0.9881761006289308</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1540,7 +1540,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -1562,7 +1562,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -1584,7 +1584,7 @@
         <v>3.428571428571428</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
@@ -1606,7 +1606,7 @@
         <v>3.252336448598131</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1628,7 +1628,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -1650,7 +1650,7 @@
         <v>0.5139917695473252</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -1694,7 +1694,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1716,7 +1716,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -1738,7 +1738,7 @@
         <v>1.5</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1782,7 +1782,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -1826,7 +1826,7 @@
         <v>0.9107142857142857</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1848,7 +1848,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1870,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -1892,7 +1892,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -1914,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1958,7 +1958,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1980,7 +1980,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +2002,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
@@ -2024,7 +2024,7 @@
         <v>0.25</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2046,7 +2046,7 @@
         <v>0.9117647058823529</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2068,7 +2068,7 @@
         <v>2.8</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -2090,7 +2090,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -2112,7 +2112,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
@@ -2134,7 +2134,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
@@ -2156,7 +2156,7 @@
         <v>3.529411764705882</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -2200,7 +2200,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -2222,7 +2222,7 @@
         <v>1.25</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -2244,7 +2244,7 @@
         <v>0.8054545454545454</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2266,7 +2266,7 @@
         <v>1.2725</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2288,7 +2288,7 @@
         <v>0.6771929824561403</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2310,7 +2310,7 @@
         <v>1.25</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -2332,7 +2332,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2376,7 +2376,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2398,7 +2398,7 @@
         <v>-0.1666666666666667</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -2420,7 +2420,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -2464,7 +2464,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2486,7 +2486,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -2530,7 +2530,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
@@ -2552,7 +2552,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2574,7 +2574,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
@@ -2596,7 +2596,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -2618,7 +2618,7 @@
         <v>4.5</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -2640,7 +2640,7 @@
         <v>0.1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2662,7 +2662,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -2684,7 +2684,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -2706,7 +2706,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2750,7 +2750,7 @@
         <v>3.043478260869565</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2772,7 +2772,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
@@ -2794,7 +2794,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
@@ -2816,7 +2816,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -2838,7 +2838,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -2860,7 +2860,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -2882,7 +2882,7 @@
         <v>0.7469879518072289</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
@@ -2904,7 +2904,7 @@
         <v>1.375</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2926,7 +2926,7 @@
         <v>0.53</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2948,7 +2948,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
@@ -2970,7 +2970,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -2992,7 +2992,7 @@
         <v>1.710999346300903</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Country_Aggregated_Clusters_Birch.xlsx
+++ b/Country_Aggregated_Clusters_Birch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tsunami Intensity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Birch_Cluster</t>
         </is>
       </c>
@@ -481,10 +476,7 @@
         <v>0.8461538461538461</v>
       </c>
       <c r="E2" t="n">
-        <v>3.454545454545455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +495,7 @@
         <v>5.214285714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -525,10 +514,7 @@
         <v>1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +533,7 @@
         <v>2.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F6" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -591,10 +571,7 @@
         <v>6.75</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -613,10 +590,7 @@
         <v>1.047619047619048</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +609,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F9" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -657,10 +628,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F10" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -679,10 +647,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -701,10 +666,7 @@
         <v>0.75</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -723,10 +685,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +704,7 @@
         <v>10.20689655172414</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -767,10 +723,7 @@
         <v>24.20958083832335</v>
       </c>
       <c r="E15" t="n">
-        <v>1.379452054794521</v>
-      </c>
-      <c r="F15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -789,10 +742,7 @@
         <v>1.488372093023256</v>
       </c>
       <c r="E16" t="n">
-        <v>1.055555555555556</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -811,9 +761,6 @@
         <v>8.375</v>
       </c>
       <c r="E17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -833,10 +780,7 @@
         <v>1.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F18" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -855,10 +799,7 @@
         <v>1.25</v>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -877,10 +818,7 @@
         <v>4.555555555555555</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +837,7 @@
         <v>1.357142857142857</v>
       </c>
       <c r="E21" t="n">
-        <v>3.181818181818182</v>
-      </c>
-      <c r="F21" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -921,10 +856,7 @@
         <v>1.428571428571429</v>
       </c>
       <c r="E22" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F22" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -943,10 +875,7 @@
         <v>1.2</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -965,10 +894,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -987,10 +913,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F25" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1009,10 +932,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F26" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1031,10 +951,7 @@
         <v>3.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1053,10 +970,7 @@
         <v>12.16666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1075,10 +989,7 @@
         <v>2.4</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1097,10 +1008,7 @@
         <v>6.25</v>
       </c>
       <c r="E30" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1119,10 +1027,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F31" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1141,9 +1046,6 @@
         <v>5.142857142857143</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1163,10 +1065,7 @@
         <v>1.384615384615385</v>
       </c>
       <c r="E33" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="F33" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1185,10 +1084,7 @@
         <v>3.25</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1207,10 +1103,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F35" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1229,10 +1122,7 @@
         <v>0.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F36" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1251,10 +1141,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F37" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1273,10 +1160,7 @@
         <v>2.027932960893855</v>
       </c>
       <c r="E38" t="n">
-        <v>3.133333333333333</v>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1295,10 +1179,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F39" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1317,10 +1198,7 @@
         <v>1.5</v>
       </c>
       <c r="E40" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F40" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1339,9 +1217,6 @@
         <v>2.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1361,10 +1236,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1383,10 +1255,7 @@
         <v>3.846153846153846</v>
       </c>
       <c r="E43" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F43" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1405,10 +1274,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E44" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F44" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1427,10 +1293,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F45" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1449,10 +1312,7 @@
         <v>0.2</v>
       </c>
       <c r="E46" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1471,10 +1331,7 @@
         <v>3.6</v>
       </c>
       <c r="E47" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F47" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1493,10 +1350,7 @@
         <v>16.04198473282443</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9881761006289308</v>
-      </c>
-      <c r="F48" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1515,10 +1369,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1537,10 +1388,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F50" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1559,10 +1407,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F51" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1581,10 +1426,7 @@
         <v>1.222222222222222</v>
       </c>
       <c r="E52" t="n">
-        <v>3.428571428571428</v>
-      </c>
-      <c r="F52" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1603,10 +1445,7 @@
         <v>2.075</v>
       </c>
       <c r="E53" t="n">
-        <v>3.252336448598131</v>
-      </c>
-      <c r="F53" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1625,10 +1464,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F54" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1647,10 +1483,7 @@
         <v>30.11320754716981</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5139917695473252</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1669,10 +1502,7 @@
         <v>0.5</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1691,10 +1521,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F57" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1713,10 +1540,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F58" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -1735,10 +1559,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1757,10 +1578,7 @@
         <v>0.75</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -1779,10 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F61" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1801,10 +1616,7 @@
         <v>1.636363636363636</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1823,10 +1635,7 @@
         <v>3.820512820512821</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9107142857142857</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1654,7 @@
         <v>1.5</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1867,10 +1673,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1889,10 +1692,7 @@
         <v>2.6</v>
       </c>
       <c r="E66" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F66" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -1911,10 +1711,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1933,10 +1730,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
-      </c>
-      <c r="F68" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1955,10 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F69" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -1977,10 +1768,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F70" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -1999,10 +1787,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F71" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2021,10 +1806,7 @@
         <v>7.043478260869565</v>
       </c>
       <c r="E72" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -2043,10 +1825,7 @@
         <v>4.865168539325842</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9117647058823529</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2065,10 +1844,7 @@
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -2087,10 +1863,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="F75" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2109,10 +1882,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F76" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -2131,10 +1901,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F77" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -2153,10 +1920,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="E78" t="n">
-        <v>3.529411764705882</v>
-      </c>
-      <c r="F78" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2175,10 +1939,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F79" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2197,10 +1958,7 @@
         <v>17.25</v>
       </c>
       <c r="E80" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F80" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -2219,10 +1977,7 @@
         <v>2.2</v>
       </c>
       <c r="E81" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F81" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -2241,10 +1996,7 @@
         <v>5.883116883116883</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8054545454545454</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -2263,10 +2015,7 @@
         <v>7.716216216216216</v>
       </c>
       <c r="E83" t="n">
-        <v>1.2725</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2285,10 +2034,7 @@
         <v>3.916666666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6771929824561403</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -2307,10 +2053,7 @@
         <v>4.571428571428571</v>
       </c>
       <c r="E85" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F85" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -2329,10 +2072,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2351,10 +2091,7 @@
         <v>15.72277227722772</v>
       </c>
       <c r="E87" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2373,9 +2110,6 @@
         <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2395,10 +2129,7 @@
         <v>41</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.1666666666666667</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2417,9 +2148,6 @@
         <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F90" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2439,10 +2167,7 @@
         <v>13.29787234042553</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -2461,9 +2186,6 @@
         <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2483,10 +2205,7 @@
         <v>1.357142857142857</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F93" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2505,10 +2224,7 @@
         <v>1.411764705882353</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2527,10 +2243,7 @@
         <v>0.5</v>
       </c>
       <c r="E95" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F95" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2549,10 +2262,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2571,10 +2281,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E97" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F97" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -2593,10 +2300,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E98" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F98" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2615,10 +2319,7 @@
         <v>1.5</v>
       </c>
       <c r="E99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F99" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
@@ -2637,10 +2338,7 @@
         <v>3.448275862068965</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -2659,10 +2357,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F101" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2681,10 +2376,7 @@
         <v>39.73913043478261</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2703,10 +2395,7 @@
         <v>1.25</v>
       </c>
       <c r="E103" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F103" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2725,10 +2414,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2747,10 +2433,7 @@
         <v>6.134328358208955</v>
       </c>
       <c r="E105" t="n">
-        <v>3.043478260869565</v>
-      </c>
-      <c r="F105" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2769,10 +2452,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F106" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2791,10 +2471,7 @@
         <v>1.869565217391304</v>
       </c>
       <c r="E107" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F107" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2813,10 +2490,7 @@
         <v>14.25</v>
       </c>
       <c r="E108" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F108" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -2835,10 +2509,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E109" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F109" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2857,10 +2528,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E110" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F110" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2879,10 +2547,7 @@
         <v>8.910714285714286</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7469879518072289</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2901,9 +2566,6 @@
         <v>8.708333333333334</v>
       </c>
       <c r="E112" t="n">
-        <v>1.375</v>
-      </c>
-      <c r="F112" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2923,10 +2585,7 @@
         <v>4.17948717948718</v>
       </c>
       <c r="E113" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -2945,10 +2604,7 @@
         <v>1.888888888888889</v>
       </c>
       <c r="E114" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F114" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -2967,10 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F115" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2989,10 +2642,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1.710999346300903</v>
-      </c>
-      <c r="F116" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
